--- a/eğim15hız10.xlsx
+++ b/eğim15hız10.xlsx
@@ -350,15 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>81</v>
       </c>
@@ -368,12 +368,8 @@
       <c r="C1">
         <v>15</v>
       </c>
-      <c r="G1">
-        <f>ROW(G47)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>81</v>
       </c>
@@ -383,12 +379,8 @@
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G65" si="0">ROW(G48)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>84</v>
       </c>
@@ -398,12 +390,8 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>84</v>
       </c>
@@ -413,12 +401,8 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>93</v>
       </c>
@@ -428,12 +412,8 @@
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>93</v>
       </c>
@@ -443,12 +423,8 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -458,12 +434,8 @@
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -473,12 +445,8 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>106</v>
       </c>
@@ -488,12 +456,8 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>106</v>
       </c>
@@ -503,12 +467,8 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>115</v>
       </c>
@@ -518,12 +478,8 @@
       <c r="C11">
         <v>15</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>115</v>
       </c>
@@ -533,12 +489,8 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>121</v>
       </c>
@@ -548,12 +500,8 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -563,12 +511,8 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>127</v>
       </c>
@@ -578,12 +522,8 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>127</v>
       </c>
@@ -593,12 +533,8 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>134</v>
       </c>
@@ -608,12 +544,8 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>134</v>
       </c>
@@ -623,12 +555,8 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>139</v>
       </c>
@@ -638,12 +566,8 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>139</v>
       </c>
@@ -653,12 +577,8 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>142</v>
       </c>
@@ -668,12 +588,8 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>142</v>
       </c>
@@ -683,12 +599,8 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>145</v>
       </c>
@@ -698,12 +610,8 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>145</v>
       </c>
@@ -713,12 +621,8 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>147</v>
       </c>
@@ -728,12 +632,8 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>147</v>
       </c>
@@ -743,12 +643,8 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>148</v>
       </c>
@@ -758,12 +654,8 @@
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>148</v>
       </c>
@@ -773,12 +665,8 @@
       <c r="C28">
         <v>15</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>149</v>
       </c>
@@ -788,12 +676,8 @@
       <c r="C29">
         <v>15</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>149</v>
       </c>
@@ -803,12 +687,8 @@
       <c r="C30">
         <v>15</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>150</v>
       </c>
@@ -818,12 +698,8 @@
       <c r="C31">
         <v>15</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>150</v>
       </c>
@@ -833,12 +709,8 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>151</v>
       </c>
@@ -848,12 +720,8 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>151</v>
       </c>
@@ -863,12 +731,8 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>152</v>
       </c>
@@ -878,12 +742,8 @@
       <c r="C35">
         <v>15</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>152</v>
       </c>
@@ -893,12 +753,8 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>153</v>
       </c>
@@ -908,12 +764,8 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>153</v>
       </c>
@@ -923,12 +775,8 @@
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>154</v>
       </c>
@@ -938,12 +786,8 @@
       <c r="C39">
         <v>15</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>154</v>
       </c>
@@ -953,12 +797,8 @@
       <c r="C40">
         <v>15</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>156</v>
       </c>
@@ -968,12 +808,8 @@
       <c r="C41">
         <v>15</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>156</v>
       </c>
@@ -983,12 +819,8 @@
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>157</v>
       </c>
@@ -998,12 +830,8 @@
       <c r="C43">
         <v>15</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>157</v>
       </c>
@@ -1013,12 +841,8 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>159</v>
       </c>
@@ -1028,12 +852,8 @@
       <c r="C45">
         <v>15</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>159</v>
       </c>
@@ -1043,12 +863,8 @@
       <c r="C46">
         <v>15</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>160</v>
       </c>
@@ -1058,12 +874,8 @@
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>160</v>
       </c>
@@ -1073,12 +885,8 @@
       <c r="C48">
         <v>15</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>161</v>
       </c>
@@ -1088,12 +896,8 @@
       <c r="C49">
         <v>15</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>161</v>
       </c>
@@ -1103,12 +907,8 @@
       <c r="C50">
         <v>15</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>162</v>
       </c>
@@ -1118,12 +918,8 @@
       <c r="C51">
         <v>15</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>162</v>
       </c>
@@ -1133,12 +929,8 @@
       <c r="C52">
         <v>15</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>163</v>
       </c>
@@ -1148,12 +940,8 @@
       <c r="C53">
         <v>15</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>163</v>
       </c>
@@ -1163,12 +951,8 @@
       <c r="C54">
         <v>15</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>164</v>
       </c>
@@ -1178,12 +962,8 @@
       <c r="C55">
         <v>15</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>164</v>
       </c>
@@ -1193,12 +973,8 @@
       <c r="C56">
         <v>15</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>165</v>
       </c>
@@ -1208,12 +984,8 @@
       <c r="C57">
         <v>15</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>165</v>
       </c>
@@ -1223,12 +995,8 @@
       <c r="C58">
         <v>15</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>166</v>
       </c>
@@ -1238,12 +1006,8 @@
       <c r="C59">
         <v>15</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>166</v>
       </c>
@@ -1253,12 +1017,8 @@
       <c r="C60">
         <v>15</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>166</v>
       </c>
@@ -1268,12 +1028,8 @@
       <c r="C61">
         <v>15</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>166</v>
       </c>
@@ -1283,12 +1039,8 @@
       <c r="C62">
         <v>15</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>168</v>
       </c>
@@ -1298,12 +1050,8 @@
       <c r="C63">
         <v>15</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>168</v>
       </c>
@@ -1313,12 +1061,8 @@
       <c r="C64">
         <v>15</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>168</v>
       </c>
@@ -1328,12 +1072,8 @@
       <c r="C65">
         <v>15</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>168</v>
       </c>
@@ -1343,12 +1083,8 @@
       <c r="C66">
         <v>15</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G127" si="1">ROW(G112)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>169</v>
       </c>
@@ -1358,12 +1094,8 @@
       <c r="C67">
         <v>15</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>169</v>
       </c>
@@ -1373,12 +1105,8 @@
       <c r="C68">
         <v>15</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>169</v>
       </c>
@@ -1388,12 +1116,8 @@
       <c r="C69">
         <v>15</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>169</v>
       </c>
@@ -1403,12 +1127,8 @@
       <c r="C70">
         <v>15</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>169</v>
       </c>
@@ -1418,12 +1138,8 @@
       <c r="C71">
         <v>15</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>169</v>
       </c>
@@ -1433,12 +1149,8 @@
       <c r="C72">
         <v>15</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>170</v>
       </c>
@@ -1448,12 +1160,8 @@
       <c r="C73">
         <v>15</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>170</v>
       </c>
@@ -1463,12 +1171,8 @@
       <c r="C74">
         <v>15</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>171</v>
       </c>
@@ -1478,12 +1182,8 @@
       <c r="C75">
         <v>15</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>171</v>
       </c>
@@ -1493,12 +1193,8 @@
       <c r="C76">
         <v>15</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>171</v>
       </c>
@@ -1508,12 +1204,8 @@
       <c r="C77">
         <v>15</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>171</v>
       </c>
@@ -1523,12 +1215,8 @@
       <c r="C78">
         <v>15</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>172</v>
       </c>
@@ -1538,12 +1226,8 @@
       <c r="C79">
         <v>15</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>172</v>
       </c>
@@ -1553,12 +1237,8 @@
       <c r="C80">
         <v>15</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>173</v>
       </c>
@@ -1568,12 +1248,8 @@
       <c r="C81">
         <v>15</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>173</v>
       </c>
@@ -1583,12 +1259,8 @@
       <c r="C82">
         <v>15</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>173</v>
       </c>
@@ -1598,12 +1270,8 @@
       <c r="C83">
         <v>15</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>173</v>
       </c>
@@ -1613,12 +1281,8 @@
       <c r="C84">
         <v>15</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>173</v>
       </c>
@@ -1628,12 +1292,8 @@
       <c r="C85">
         <v>15</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>173</v>
       </c>
@@ -1643,12 +1303,8 @@
       <c r="C86">
         <v>15</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>174</v>
       </c>
@@ -1658,12 +1314,8 @@
       <c r="C87">
         <v>15</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="1"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>174</v>
       </c>
@@ -1673,12 +1325,8 @@
       <c r="C88">
         <v>15</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>174</v>
       </c>
@@ -1688,12 +1336,8 @@
       <c r="C89">
         <v>15</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>175</v>
       </c>
@@ -1703,12 +1347,8 @@
       <c r="C90">
         <v>15</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="1"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>175</v>
       </c>
@@ -1718,12 +1358,8 @@
       <c r="C91">
         <v>15</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>175</v>
       </c>
@@ -1733,12 +1369,8 @@
       <c r="C92">
         <v>15</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>175</v>
       </c>
@@ -1748,12 +1380,8 @@
       <c r="C93">
         <v>15</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>175</v>
       </c>
@@ -1763,12 +1391,8 @@
       <c r="C94">
         <v>15</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>175</v>
       </c>
@@ -1778,12 +1402,8 @@
       <c r="C95">
         <v>15</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>175</v>
       </c>
@@ -1793,12 +1413,8 @@
       <c r="C96">
         <v>15</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>175</v>
       </c>
@@ -1808,12 +1424,8 @@
       <c r="C97">
         <v>15</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>176</v>
       </c>
@@ -1823,12 +1435,8 @@
       <c r="C98">
         <v>15</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>176</v>
       </c>
@@ -1838,12 +1446,8 @@
       <c r="C99">
         <v>15</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>176</v>
       </c>
@@ -1853,12 +1457,8 @@
       <c r="C100">
         <v>15</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>177</v>
       </c>
@@ -1868,12 +1468,8 @@
       <c r="C101">
         <v>15</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>177</v>
       </c>
@@ -1883,12 +1479,8 @@
       <c r="C102">
         <v>15</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>177</v>
       </c>
@@ -1898,12 +1490,8 @@
       <c r="C103">
         <v>15</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>177</v>
       </c>
@@ -1913,12 +1501,8 @@
       <c r="C104">
         <v>15</v>
       </c>
-      <c r="G104">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>177</v>
       </c>
@@ -1928,12 +1512,8 @@
       <c r="C105">
         <v>15</v>
       </c>
-      <c r="G105">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>177</v>
       </c>
@@ -1943,12 +1523,8 @@
       <c r="C106">
         <v>15</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>177</v>
       </c>
@@ -1958,12 +1534,8 @@
       <c r="C107">
         <v>15</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>177</v>
       </c>
@@ -1973,12 +1545,8 @@
       <c r="C108">
         <v>15</v>
       </c>
-      <c r="G108">
-        <f t="shared" si="1"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>178</v>
       </c>
@@ -1988,12 +1556,8 @@
       <c r="C109">
         <v>15</v>
       </c>
-      <c r="G109">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>178</v>
       </c>
@@ -2003,12 +1567,8 @@
       <c r="C110">
         <v>15</v>
       </c>
-      <c r="G110">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>178</v>
       </c>
@@ -2018,12 +1578,8 @@
       <c r="C111">
         <v>15</v>
       </c>
-      <c r="G111">
-        <f t="shared" si="1"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>178</v>
       </c>
@@ -2033,12 +1589,8 @@
       <c r="C112">
         <v>15</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>178</v>
       </c>
@@ -2048,12 +1600,8 @@
       <c r="C113">
         <v>15</v>
       </c>
-      <c r="G113">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>178</v>
       </c>
@@ -2063,12 +1611,8 @@
       <c r="C114">
         <v>15</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>178</v>
       </c>
@@ -2078,12 +1622,8 @@
       <c r="C115">
         <v>15</v>
       </c>
-      <c r="G115">
-        <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>178</v>
       </c>
@@ -2093,12 +1633,8 @@
       <c r="C116">
         <v>15</v>
       </c>
-      <c r="G116">
-        <f t="shared" si="1"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>178</v>
       </c>
@@ -2108,12 +1644,8 @@
       <c r="C117">
         <v>15</v>
       </c>
-      <c r="G117">
-        <f t="shared" si="1"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>178</v>
       </c>
@@ -2123,12 +1655,8 @@
       <c r="C118">
         <v>15</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>178</v>
       </c>
@@ -2138,12 +1666,8 @@
       <c r="C119">
         <v>15</v>
       </c>
-      <c r="G119">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>178</v>
       </c>
@@ -2153,12 +1677,8 @@
       <c r="C120">
         <v>15</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="1"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>179</v>
       </c>
@@ -2168,12 +1688,8 @@
       <c r="C121">
         <v>15</v>
       </c>
-      <c r="G121">
-        <f t="shared" si="1"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>179</v>
       </c>
@@ -2183,12 +1699,8 @@
       <c r="C122">
         <v>15</v>
       </c>
-      <c r="G122">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>179</v>
       </c>
@@ -2198,12 +1710,8 @@
       <c r="C123">
         <v>15</v>
       </c>
-      <c r="G123">
-        <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>179</v>
       </c>
@@ -2213,12 +1721,8 @@
       <c r="C124">
         <v>15</v>
       </c>
-      <c r="G124">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>179</v>
       </c>
@@ -2228,12 +1732,8 @@
       <c r="C125">
         <v>15</v>
       </c>
-      <c r="G125">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>179</v>
       </c>
@@ -2243,12 +1743,8 @@
       <c r="C126">
         <v>15</v>
       </c>
-      <c r="G126">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>179</v>
       </c>
@@ -2257,10 +1753,6 @@
       </c>
       <c r="C127">
         <v>15</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="1"/>
-        <v>173</v>
       </c>
     </row>
   </sheetData>
